--- a/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_RakonRFP045.xlsx
+++ b/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_RakonRFP045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\OSC\OCXO Daughtercard\ECAD\Project Outputs for OCXO_DaughterCard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9640E0-2D8D-429A-B83C-A77464FBE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B5026-0D0A-4707-BC0B-D9F468ACC164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{4187A5A9-4009-477F-B260-D301C6BDC75F}"/>
+    <workbookView xWindow="348" yWindow="576" windowWidth="20976" windowHeight="10956" xr2:uid="{4187A5A9-4009-477F-B260-D301C6BDC75F}"/>
   </bookViews>
   <sheets>
     <sheet name="OCXO_DaughterCard_RakonRFP045" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,9 +527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,7 +567,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -673,7 +673,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,12 +825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E882505-6C5A-4C46-83E4-21FA1FEAD7DA}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="6" width="19" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">

--- a/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_RakonRFP045.xlsx
+++ b/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_RakonRFP045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B5026-0D0A-4707-BC0B-D9F468ACC164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D210540D-D7AD-49B7-A9E5-70659ABCF273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="576" windowWidth="20976" windowHeight="10956" xr2:uid="{4187A5A9-4009-477F-B260-D301C6BDC75F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4187A5A9-4009-477F-B260-D301C6BDC75F}"/>
   </bookViews>
   <sheets>
     <sheet name="OCXO_DaughterCard_RakonRFP045" sheetId="1" r:id="rId1"/>
@@ -826,17 +826,18 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="3" max="6" width="19" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -856,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -876,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -896,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -916,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -936,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -956,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -976,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -996,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>102</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>121</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>131</v>
       </c>
